--- a/ecuacion-lib-core/doc/単体テスト仕様書_fmt-2.0_ecuacion-lib-core.xlsx
+++ b/ecuacion-lib-core/doc/単体テスト仕様書_fmt-2.0_ecuacion-lib-core.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yosuke.tanaka/Desktop/development/git/ecuacion-lib/ecuacion-lib-core/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A43A9-4D64-3A47-8F81-681F00458781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C3869-8465-E740-A4C7-0FEFE121252C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="fmt変更履歴" sheetId="10" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="238">
   <si>
     <t>単体テスト概要</t>
     <rPh sb="0" eb="2">
@@ -337,10 +337,6 @@
   </si>
   <si>
     <t>BeanValidationAppException</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>CustomizedValidationAppException</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -856,9 +852,6 @@
     <t>PropertyFileUtilPropFileKindEnum</t>
   </si>
   <si>
-    <t>PropertyFileUtilMultiLangPropStore</t>
-  </si>
-  <si>
     <t>04</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -950,25 +943,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ecuacion_lib_jakartaee_xxx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>06</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>個別プロジェクト用_common_for_all_profiles</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コベツプロジェクトヨウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>個別プロジェクト用_for_all_profiles</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">コベツプロジェクトヨウ </t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1039,10 +1014,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ファイル_localeなしがない</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>keyが存在しないエラー発生</t>
     <rPh sb="12" eb="14">
       <t xml:space="preserve">ハッセイ </t>
@@ -1286,6 +1257,66 @@
   </si>
   <si>
     <t>DataTypeKataEnum</t>
+  </si>
+  <si>
+    <t>PropertyFileUtilValueGetter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ecuacion_splib_xxx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ビコウ ホンライベツパッケージノ ヨム ドウイツパッケージカラジッシスルノハフカ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本来別パッケージのものを読むテストということだが、それを同一パッケージから実施するのは不可。ここではgetPostfixesの取得結果の確認までとする</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ホンライベツパッケージノ </t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t xml:space="preserve">ヨム </t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t xml:space="preserve">ドウイツパッケージカラジッシスルノハフカ </t>
+    </rPh>
+    <rPh sb="63" eb="67">
+      <t xml:space="preserve">シュトクケッカノカクニンマデトスル </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個別プロジェクト用_profile</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コベツプロジェクトヨウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BizLogicAppException</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>個別プロジェクト用_core_profile</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コベツプロジェクトヨウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>client_locale_なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル_locale_言語</t>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ゲンゴ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1366,7 +1397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1377,6 +1408,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1440,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1550,6 +1587,21 @@
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2072,9 +2124,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1E2ACACF-3745-D148-93D9-FDFAB60C0D2A}" name="テーブル4" displayName="テーブル4" ref="A1:K94" totalsRowShown="0">
-  <autoFilter ref="A1:K94" xr:uid="{1E2ACACF-3745-D148-93D9-FDFAB60C0D2A}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1E2ACACF-3745-D148-93D9-FDFAB60C0D2A}" name="テーブル4" displayName="テーブル4" ref="A1:L90" totalsRowShown="0">
+  <autoFilter ref="A1:L90" xr:uid="{1E2ACACF-3745-D148-93D9-FDFAB60C0D2A}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{6B0F3FE3-A1D5-CE42-8E9A-CACB89B0ADF7}" name="クラス_x000a_分類1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{17E006C1-E644-3540-A6E3-E2E481B0BC61}" name="クラス_x000a_分類2" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{EBF6B405-AA36-9747-BFA3-67ABF8B1FFD0}" name="クラス名" dataDxfId="4">
@@ -2095,6 +2147,7 @@
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{91FB7E9E-3CA8-DE44-A962-D9F11EDE904B}" name="想定"/>
+    <tableColumn id="7" xr3:uid="{F501E0FE-DE32-8E4A-9B7A-EF3847C8D356}" name="備考"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2529,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView topLeftCell="A39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2557,12 +2610,12 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28">
@@ -2582,7 +2635,7 @@
         <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>4</v>
@@ -2599,13 +2652,13 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>43</v>
@@ -2621,7 +2674,7 @@
         <v/>
       </c>
       <c r="H7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I7" s="22"/>
     </row>
@@ -2630,13 +2683,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>43</v>
@@ -2652,7 +2705,7 @@
         <v/>
       </c>
       <c r="H8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="22"/>
     </row>
@@ -2661,13 +2714,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="32" t="str">
@@ -2681,7 +2734,7 @@
         <v/>
       </c>
       <c r="H9" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I9" s="22"/>
     </row>
@@ -2690,13 +2743,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="32" t="str">
@@ -2710,7 +2763,7 @@
         <v/>
       </c>
       <c r="H10" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I10" s="22"/>
     </row>
@@ -2719,13 +2772,13 @@
         <v>20</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="32" t="str">
@@ -2739,7 +2792,7 @@
         <v/>
       </c>
       <c r="H11" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I11" s="22"/>
     </row>
@@ -2748,13 +2801,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="32" t="str">
@@ -2768,7 +2821,7 @@
         <v/>
       </c>
       <c r="H12" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12" s="22"/>
     </row>
@@ -2777,13 +2830,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="34"/>
       <c r="F13" s="32" t="str">
@@ -2797,7 +2850,7 @@
         <v/>
       </c>
       <c r="H13" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" s="22"/>
     </row>
@@ -2806,13 +2859,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="32" t="str">
@@ -2826,7 +2879,7 @@
         <v/>
       </c>
       <c r="H14" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I14" s="22"/>
     </row>
@@ -2835,13 +2888,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="32" t="str">
@@ -2855,7 +2908,7 @@
         <v/>
       </c>
       <c r="H15" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I15" s="22"/>
     </row>
@@ -2864,13 +2917,13 @@
         <v>20</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="25" t="str">
@@ -2884,7 +2937,7 @@
         <v/>
       </c>
       <c r="H16" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I16" s="22"/>
     </row>
@@ -2893,13 +2946,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E17" s="34"/>
       <c r="F17" s="32" t="str">
@@ -2913,7 +2966,7 @@
         <v/>
       </c>
       <c r="H17" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I17" s="22"/>
     </row>
@@ -2922,13 +2975,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="32" t="str">
@@ -2942,7 +2995,7 @@
         <v/>
       </c>
       <c r="H18" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I18" s="22"/>
     </row>
@@ -2951,13 +3004,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="34"/>
       <c r="F19" s="32" t="str">
@@ -2971,7 +3024,7 @@
         <v/>
       </c>
       <c r="H19" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I19" s="22"/>
     </row>
@@ -2980,13 +3033,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E20" s="34"/>
       <c r="F20" s="32" t="str">
@@ -3000,7 +3053,7 @@
         <v/>
       </c>
       <c r="H20" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" s="22"/>
     </row>
@@ -3009,13 +3062,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="34"/>
       <c r="F21" s="32" t="str">
@@ -3029,7 +3082,7 @@
         <v/>
       </c>
       <c r="H21" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I21" s="22"/>
     </row>
@@ -3038,13 +3091,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E22" s="34"/>
       <c r="F22" s="32" t="str">
@@ -3058,7 +3111,7 @@
         <v/>
       </c>
       <c r="H22" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I22" s="22"/>
     </row>
@@ -3067,13 +3120,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="32" t="str">
@@ -3087,7 +3140,7 @@
         <v/>
       </c>
       <c r="H23" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I23" s="22"/>
     </row>
@@ -3096,13 +3149,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E24" s="34"/>
       <c r="F24" s="32" t="str">
@@ -3116,7 +3169,7 @@
         <v/>
       </c>
       <c r="H24" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I24" s="22"/>
     </row>
@@ -3125,13 +3178,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="34"/>
       <c r="F25" s="32" t="str">
@@ -3145,7 +3198,7 @@
         <v/>
       </c>
       <c r="H25" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I25" s="22"/>
     </row>
@@ -3154,13 +3207,13 @@
         <v>20</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="34"/>
       <c r="F26" s="32" t="str">
@@ -3174,7 +3227,7 @@
         <v/>
       </c>
       <c r="H26" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="22"/>
     </row>
@@ -3183,13 +3236,13 @@
         <v>20</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="34"/>
       <c r="F27" s="25" t="str">
@@ -3203,7 +3256,7 @@
         <v/>
       </c>
       <c r="H27" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I27" s="22"/>
     </row>
@@ -3212,13 +3265,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" s="34"/>
       <c r="F28" s="32" t="str">
@@ -3232,7 +3285,7 @@
         <v/>
       </c>
       <c r="H28" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I28" s="22"/>
     </row>
@@ -3241,13 +3294,13 @@
         <v>20</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="34"/>
       <c r="F29" s="32" t="str">
@@ -3261,7 +3314,7 @@
         <v/>
       </c>
       <c r="H29" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I29" s="22"/>
     </row>
@@ -3270,13 +3323,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30" s="34"/>
       <c r="F30" s="32" t="str">
@@ -3290,7 +3343,7 @@
         <v/>
       </c>
       <c r="H30" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I30" s="22"/>
     </row>
@@ -3299,13 +3352,13 @@
         <v>20</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E31" s="34"/>
       <c r="F31" s="32" t="str">
@@ -3319,7 +3372,7 @@
         <v/>
       </c>
       <c r="H31" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I31" s="22"/>
     </row>
@@ -3328,13 +3381,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="34"/>
       <c r="F32" s="32" t="str">
@@ -3348,7 +3401,7 @@
         <v/>
       </c>
       <c r="H32" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I32" s="22"/>
     </row>
@@ -3357,13 +3410,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="34"/>
       <c r="F33" s="32" t="str">
@@ -3377,7 +3430,7 @@
         <v/>
       </c>
       <c r="H33" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I33" s="22"/>
     </row>
@@ -3386,13 +3439,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C34" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="32" t="str">
@@ -3406,7 +3459,7 @@
         <v/>
       </c>
       <c r="H34" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="22"/>
     </row>
@@ -3415,13 +3468,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E35" s="34"/>
       <c r="F35" s="32" t="str">
@@ -3435,7 +3488,7 @@
         <v/>
       </c>
       <c r="H35" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I35" s="22"/>
     </row>
@@ -3444,13 +3497,13 @@
         <v>20</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" s="34"/>
       <c r="F36" s="25" t="str">
@@ -3464,7 +3517,7 @@
         <v/>
       </c>
       <c r="H36" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="22"/>
     </row>
@@ -3473,13 +3526,13 @@
         <v>21</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>43</v>
@@ -3495,7 +3548,7 @@
         <v/>
       </c>
       <c r="H37" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I37" s="22"/>
     </row>
@@ -3504,13 +3557,13 @@
         <v>21</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>43</v>
@@ -3526,7 +3579,7 @@
         <v/>
       </c>
       <c r="H38" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I38" s="22"/>
     </row>
@@ -3535,13 +3588,13 @@
         <v>21</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>43</v>
@@ -3557,7 +3610,7 @@
         <v/>
       </c>
       <c r="H39" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I39" s="22"/>
     </row>
@@ -3566,13 +3619,13 @@
         <v>21</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C40" s="31" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>43</v>
@@ -3588,7 +3641,7 @@
         <v/>
       </c>
       <c r="H40" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I40" s="22"/>
     </row>
@@ -3597,13 +3650,13 @@
         <v>21</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>43</v>
@@ -3619,7 +3672,7 @@
         <v/>
       </c>
       <c r="H41" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I41" s="22"/>
     </row>
@@ -3650,7 +3703,7 @@
         <v/>
       </c>
       <c r="H42" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>45</v>
@@ -3683,7 +3736,7 @@
         <v/>
       </c>
       <c r="H43" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>45</v>
@@ -3716,10 +3769,10 @@
         <v/>
       </c>
       <c r="H44" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14">
@@ -3749,7 +3802,7 @@
         <v>Test21_11_exception_BeanValidationAppException</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I45" s="10"/>
     </row>
@@ -3764,7 +3817,7 @@
         <v>21</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>27</v>
@@ -3777,10 +3830,10 @@
       <c r="G46" s="23" t="str">
         <f>IF(テーブル1[[#This Row],[テスト
 有無]]="○","Test"&amp;テーブル1[[#This Row],[分類1]]&amp;"_"&amp;テーブル1[[#This Row],[分類2]]&amp;"_"&amp;テーブル1[[#This Row],[パッケージ]]&amp;"_"&amp;テーブル1[[#This Row],[テスト対象クラス（1クラスに対し複数テストクラスも可）]],"")</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I46" s="10"/>
     </row>
@@ -3795,7 +3848,7 @@
         <v>22</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E47" s="33" t="s">
         <v>27</v>
@@ -3811,7 +3864,7 @@
         <v>Test21_13_exception_ExternalAppException</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I47" s="10"/>
     </row>
@@ -3826,7 +3879,7 @@
         <v>23</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>27</v>
@@ -3842,7 +3895,7 @@
         <v>Test21_21_exception_MultipleAppException</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I48" s="22"/>
     </row>
@@ -3857,7 +3910,7 @@
         <v>25</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E49" s="33" t="s">
         <v>27</v>
@@ -3873,22 +3926,22 @@
         <v>Test21_31_exception_RuntimeAppException</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I49" s="22"/>
     </row>
     <row r="50" spans="1:9" ht="14">
       <c r="A50" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="C50" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="26" t="s">
         <v>154</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>27</v>
@@ -3904,22 +3957,22 @@
         <v>Test91_01_util_BeanValidationUtil</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I50" s="22"/>
     </row>
     <row r="51" spans="1:9" ht="14">
       <c r="A51" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>154</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>27</v>
@@ -3935,22 +3988,22 @@
         <v>Test91_02_util_ExceptionUtil</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I51" s="22"/>
     </row>
     <row r="52" spans="1:9" ht="14">
       <c r="A52" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>154</v>
       </c>
       <c r="C52" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>27</v>
@@ -3966,22 +4019,22 @@
         <v>Test91_03_util_ExceptionHandlerUtil</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I52" s="22"/>
     </row>
     <row r="53" spans="1:9" ht="14">
       <c r="A53" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C53" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E53" s="33" t="s">
         <v>27</v>
@@ -3997,22 +4050,22 @@
         <v>Test91_04_util_DateTimeUtil</v>
       </c>
       <c r="H53" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I53" s="22"/>
     </row>
     <row r="54" spans="1:9" ht="14">
       <c r="A54" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C54" s="31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E54" s="33" t="s">
         <v>27</v>
@@ -4028,22 +4081,22 @@
         <v>Test91_05_util_DateTimeApiUtil</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I54" s="22"/>
     </row>
     <row r="55" spans="1:9" ht="14">
       <c r="A55" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B55" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C55" s="31" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E55" s="33" t="s">
         <v>27</v>
@@ -4059,22 +4112,22 @@
         <v>Test91_06_util_LogUtil</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I55" s="22"/>
     </row>
     <row r="56" spans="1:9" ht="14">
       <c r="A56" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C56" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E56" s="33" t="s">
         <v>27</v>
@@ -4090,22 +4143,22 @@
         <v>Test91_07_util_FileUtil</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I56" s="22"/>
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C57" s="31" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>27</v>
@@ -4121,22 +4174,22 @@
         <v>Test91_08_util_FormatCheckCommonBl</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I57" s="22"/>
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C58" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E58" s="33" t="s">
         <v>27</v>
@@ -4152,22 +4205,22 @@
         <v>Test91_09_util_StringUtil</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I58" s="22"/>
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>154</v>
       </c>
       <c r="C59" s="31" t="s">
         <v>20</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>43</v>
@@ -4183,22 +4236,22 @@
         <v/>
       </c>
       <c r="H59" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I59" s="22"/>
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C60" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="E60" s="33" t="s">
         <v>27</v>
@@ -4211,19 +4264,19 @@
       <c r="G60" s="23" t="str">
         <f>IF(テーブル1[[#This Row],[テスト
 有無]]="○","Test"&amp;テーブル1[[#This Row],[分類1]]&amp;"_"&amp;テーブル1[[#This Row],[分類2]]&amp;"_"&amp;テーブル1[[#This Row],[パッケージ]]&amp;"_"&amp;テーブル1[[#This Row],[テスト対象クラス（1クラスに対し複数テストクラスも可）]],"")</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="22"/>
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>154</v>
       </c>
       <c r="C61" s="31" t="s">
         <v>22</v>
@@ -4245,22 +4298,22 @@
         <v>Test91_13_util_PropertyFileUtil</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I61" s="22"/>
     </row>
     <row r="62" spans="1:9" ht="14">
       <c r="A62" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>153</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>154</v>
       </c>
       <c r="C62" s="31" t="s">
         <v>23</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="E62" s="33" t="s">
         <v>27</v>
@@ -4276,22 +4329,22 @@
         <v>Test91_21_util_MailUtil</v>
       </c>
       <c r="H62" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I62" s="22"/>
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C63" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>27</v>
@@ -4307,22 +4360,22 @@
         <v>Test91_22_util_MailUtilEmail</v>
       </c>
       <c r="H63" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I63" s="22"/>
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C64" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>27</v>
@@ -4338,22 +4391,22 @@
         <v>Test91_23_util_MailUtilEmailContent</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I64" s="22"/>
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C65" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E65" s="33" t="s">
         <v>27</v>
@@ -4369,22 +4422,22 @@
         <v>Test91_24_util_MailUtilEmailServer</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I65" s="22"/>
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B66" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="30" t="s">
-        <v>154</v>
-      </c>
       <c r="C66" s="31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E66" s="33" t="s">
         <v>27</v>
@@ -4400,7 +4453,7 @@
         <v>Test91_25_util_MailUtilEmailSettings</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I66" s="22"/>
     </row>
@@ -4416,16 +4469,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A188F717-787B-2846-ABCD-AC5534B28AAD}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="2" width="8.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.59765625" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.19921875" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -4433,45 +4486,49 @@
     <col min="8" max="8" width="7.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="26.59765625" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="41.19921875" customWidth="1"/>
+    <col min="11" max="11" width="28.796875" customWidth="1"/>
+    <col min="12" max="12" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28">
+    <row r="1" spans="1:12" ht="28">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -4488,19 +4545,19 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4510,10 +4567,10 @@
         <v>test01_値の格納_01_ConstarintViolationを引数に取るコンストラクタ_01_引数がnull</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -4530,19 +4587,19 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>56</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4552,10 +4609,10 @@
         <v>test01_値の格納_01_ConstarintViolationを引数に取るコンストラクタ_11_引数が正常</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="140">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="140">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4572,20 +4629,20 @@
         <v>18</v>
       </c>
       <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test02_値の取得</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test02_値の取得</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -4602,20 +4659,20 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test11_messageIdの取得</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test11_messageIdの取得</v>
-      </c>
-      <c r="K5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -4632,7 +4689,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4642,7 +4699,7 @@
         <v>test12_toStringの取得</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -4659,13 +4716,13 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J7" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4675,7 +4732,7 @@
         <v>test13_getMessageArgMapの取得_01_パラメータなし</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -4692,13 +4749,13 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J8" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4708,7 +4765,7 @@
         <v>test13_getMessageArgMapの取得_02_パラメータあり</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -4719,25 +4776,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4747,7 +4804,7 @@
         <v>test01_コンストラクタ_01_messageId_01_引数がnull</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4758,25 +4815,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4786,7 +4843,7 @@
         <v>test01_コンストラクタ_01_messageId_02_引数がnull以外</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -4797,26 +4854,26 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
-      </c>
       <c r="J11" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
@@ -4825,7 +4882,7 @@
         <v>test01_コンストラクタ_02_messageId_messageArgs_01_全部null</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4836,25 +4893,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J12" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4864,7 +4921,7 @@
         <v>test01_コンストラクタ_02_messageId_messageArgs_02_messageId以外null</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -4875,25 +4932,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J13" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4903,7 +4960,7 @@
         <v>test01_コンストラクタ_02_messageId_messageArgs_03_正常</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -4914,25 +4971,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4942,7 +4999,7 @@
         <v>test01_コンストラクタ_11_locale_messageId_01_全部null</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -4953,25 +5010,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -4981,7 +5038,7 @@
         <v>test01_コンストラクタ_11_locale_messageId_02_messageId以外null</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4992,25 +5049,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J16" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5031,25 +5088,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J17" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5070,25 +5127,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5109,25 +5166,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J19" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5148,19 +5205,19 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J20" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5181,19 +5238,19 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test21_12_exception_CustomizedValidationAppException</v>
+        <v>Test21_12_exception_BizLogicAppException</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J21" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5220,19 +5277,19 @@
         <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J22" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5259,19 +5316,19 @@
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J23" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5298,19 +5355,19 @@
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5337,19 +5394,19 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5376,19 +5433,19 @@
         <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J26" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5415,13 +5472,13 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J27" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5448,13 +5505,13 @@
         <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J28" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5466,7 +5523,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>15</v>
@@ -5481,19 +5538,19 @@
         <v>20</v>
       </c>
       <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" t="s">
         <v>157</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" t="s">
-        <v>158</v>
       </c>
       <c r="J29" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5505,7 +5562,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>15</v>
@@ -5520,19 +5577,19 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
         <v>156</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>157</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5544,7 +5601,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>15</v>
@@ -5559,19 +5616,19 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
         <v>156</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>157</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J31" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5583,7 +5640,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>15</v>
@@ -5598,19 +5655,19 @@
         <v>20</v>
       </c>
       <c r="E32" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
         <v>156</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>157</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J32" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5620,9 +5677,9 @@
         <v>test11_validateThenReturn_01_object_locale_11_locale指定</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>15</v>
@@ -5637,19 +5694,19 @@
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J33" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5659,9 +5716,9 @@
         <v>test11_validateThenReturn_02_object_01_objectがnull</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>15</v>
@@ -5676,19 +5733,19 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5698,9 +5755,9 @@
         <v>test11_validateThenReturn_02_object_02_正常</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>15</v>
@@ -5715,19 +5772,19 @@
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J35" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5737,9 +5794,9 @@
         <v>test11_validateThenReturn_02_object_11_defaultLocaleを指定</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>15</v>
@@ -5754,20 +5811,20 @@
         <v>23</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G36" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
         <v>157</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" t="s">
-        <v>158</v>
-      </c>
       <c r="J36" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
@@ -5776,9 +5833,9 @@
         <v>test21_validateThenThrow_01_object_locale_01_objectがnull</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>15</v>
@@ -5793,19 +5850,19 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J37" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5815,9 +5872,9 @@
         <v>test21_validateThenThrow_01_object_locale_02_localeがnull</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>15</v>
@@ -5832,19 +5889,19 @@
         <v>23</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J38" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5854,9 +5911,9 @@
         <v>test21_validateThenThrow_01_object_locale_03_正常</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>15</v>
@@ -5871,19 +5928,19 @@
         <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J39" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5893,9 +5950,9 @@
         <v>test21_validateThenThrow_01_object_locale_11_locale指定</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>15</v>
@@ -5910,19 +5967,19 @@
         <v>23</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J40" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5932,9 +5989,9 @@
         <v>test21_validateThenThrow_02_object_01_objectがnull</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -5949,19 +6006,19 @@
         <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J41" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -5971,9 +6028,9 @@
         <v>test21_validateThenThrow_02_object_02_正常</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>15</v>
@@ -5988,58 +6045,58 @@
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I42" t="s">
+        <v>162</v>
+      </c>
+      <c r="J42" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test21_validateThenThrow_02_object_11_defaultLocaleを指定</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" t="s">
+        <v>166</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" t="s">
         <v>163</v>
       </c>
-      <c r="J42" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test21_validateThenThrow_02_object_11_defaultLocaleを指定</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>164</v>
-      </c>
       <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J43" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -6049,9 +6106,9 @@
         <v>test01_constructor_01_PropertyFileUtilPropFileKindEnum_01_引数がnull</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
@@ -6060,25 +6117,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J44" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -6088,9 +6145,9 @@
         <v>test01_constructor_01_PropertyFileUtilPropFileKindEnum_02_引数がnull以外</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
@@ -6099,25 +6156,25 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J45" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -6127,9 +6184,9 @@
         <v>test01_constructor_02_filePrefix_01_引数がnull</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
@@ -6138,115 +6195,119 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test01_constructor_02_filePrefix_02_引数がnull以外</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="39" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="J46" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test01_constructor_02_filePrefix_02_引数がnull以外</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="J47" s="39" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test01_constructor_11_onConstruct_01_default_locale_指定なし</v>
+      </c>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="39" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G47" t="s">
-        <v>173</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="G48" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="J47" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test01_constructor_11_onConstruct_01_default_locale_指定なし</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" t="s">
-        <v>168</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>173</v>
-      </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="I48" t="s">
-        <v>172</v>
-      </c>
-      <c r="J48" t="str">
+      <c r="I48" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="J48" s="39" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
         <v>test01_constructor_11_onConstruct_02_default_locale_指定あり</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
@@ -6255,196 +6316,226 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E49" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test11_読み込みファイル種類_01_ecuacion_lib_xxx</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="41" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="H50" s="40"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test11_読み込みファイル種類_02_ecuacion_splib_xxx</v>
+      </c>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="41" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F51" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test11_読み込みファイル種類_03_個別プロジェクト用標準ファイル</v>
+      </c>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="41" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="G52" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>179</v>
-      </c>
-      <c r="J49" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test11_読み込みファイル種類_01_ecuacion_lib_xxx</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test11_読み込みファイル種類_04_個別プロジェクト用base</v>
+      </c>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="41" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D53" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E50" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" t="s">
-        <v>180</v>
-      </c>
-      <c r="J50" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test11_読み込みファイル種類_02_ecuacion_lib_jakartaee_xxx</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E53" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test11_読み込みファイル種類_05_個別プロジェクト用_profile</v>
+      </c>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="41" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D54" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E51" t="s">
-        <v>176</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G51" t="s">
-        <v>177</v>
-      </c>
-      <c r="J51" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test11_読み込みファイル種類_03_個別プロジェクト用標準ファイル</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>176</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="E54" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="J52" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test11_読み込みファイル種類_04_個別プロジェクト用base</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G53" t="s">
-        <v>183</v>
-      </c>
-      <c r="J53" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test11_読み込みファイル種類_05_個別プロジェクト用_for_all_profiles</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" t="s">
-        <v>176</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G54" t="s">
-        <v>182</v>
-      </c>
-      <c r="J54" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test11_読み込みファイル種類_06_個別プロジェクト用_common_for_all_profiles</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="G54" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test11_読み込みファイル種類_06_個別プロジェクト用_core_profile</v>
+      </c>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
@@ -6453,13 +6544,13 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>15</v>
@@ -6471,7 +6562,7 @@
         <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J55" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -6481,9 +6572,9 @@
         <v>test21_hasProp_01_key_01_keyがnull</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
@@ -6492,13 +6583,13 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>15</v>
@@ -6510,7 +6601,7 @@
         <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J56" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -6520,9 +6611,9 @@
         <v>test21_hasProp_01_key_11_ファイルが存在しない場合</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
@@ -6531,13 +6622,13 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
@@ -6549,7 +6640,7 @@
         <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J57" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
@@ -6559,9 +6650,9 @@
         <v>test21_hasProp_01_key_12_キーが存在しない場合</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
@@ -6570,13 +6661,13 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E58" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>15</v>
@@ -6588,175 +6679,175 @@
         <v>23</v>
       </c>
       <c r="I58" t="s">
+        <v>180</v>
+      </c>
+      <c r="J58" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test21_hasProp_01_key_21_キーが存在する場合</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
         <v>185</v>
       </c>
-      <c r="J58" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test21_hasProp_01_key_21_キーが存在する場合</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C59" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="F59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59" t="s">
+        <v>37</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" t="s">
+        <v>183</v>
+      </c>
+      <c r="J59" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test22_getProp_01_key_01_keyがnull</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" t="s">
+        <v>184</v>
+      </c>
+      <c r="J60" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test22_getProp_01_key_11_ファイルが存在しない場合</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I61" t="s">
+        <v>181</v>
+      </c>
+      <c r="J61" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test22_getProp_01_key_12_キーが存在しない場合</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP(テーブル4[[#This Row],[クラス
+分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
+分類2]],テスト概要!F:G,2,FALSE)</f>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E59" t="s">
-        <v>184</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>187</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" t="s">
-        <v>159</v>
-      </c>
-      <c r="J59" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test21_hasProp_02_locale_key_01_localeがnull</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" t="s">
-        <v>184</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s">
-        <v>187</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" t="s">
-        <v>188</v>
-      </c>
-      <c r="J60" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test21_hasProp_02_locale_key_02_keyがnull</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E61" t="s">
-        <v>184</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s">
-        <v>187</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test21_hasProp_02_locale_key_11_ファイルが存在しない場合</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" t="s">
-        <v>184</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>187</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I62" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J62" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test21_hasProp_02_locale_key_12_キーが存在しない場合</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>test22_getProp_01_key_21_キーが存在する場合</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
@@ -6765,37 +6856,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="J63" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test21_hasProp_02_locale_key_21_キーが存在する場合</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>test22_getProp_02_locale_key_01_localeがnull</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
@@ -6804,37 +6895,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J64" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_01_key_01_keyがnull</v>
+        <v>test22_getProp_02_locale_key_02_keyがnull</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
@@ -6843,37 +6934,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J65" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_01_key_11_ファイルが存在しない場合</v>
+        <v>test22_getProp_02_locale_key_11_ファイルが存在しない場合</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
@@ -6882,37 +6973,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="I66" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J66" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_01_key_12_キーが存在しない場合</v>
+        <v>test22_getProp_02_locale_key_12_キーが存在しない場合</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
@@ -6921,37 +7012,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>182</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I67" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J67" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_01_key_21_キーが存在する場合</v>
+        <v>test22_getProp_02_locale_key_21_キーが存在する場合</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
@@ -6960,37 +7051,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G68" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I68" t="s">
-        <v>159</v>
-      </c>
-      <c r="J68" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_02_locale_key_01_localeがnull</v>
+        <v>236</v>
+      </c>
+      <c r="J68" s="42" t="str">
+        <f>"test"&amp;テーブル4[[#This Row],[テスト
+分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
+項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
+項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
+        <v>test31_複数locale_01_ファイル_localeなしのみ_01_client_locale_なし</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
@@ -6999,37 +7090,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J69" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_02_locale_key_02_keyがnull</v>
+        <v>test31_複数locale_01_ファイル_localeなしのみ_02_client_locale_言語</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
@@ -7038,37 +7129,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I70" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J70" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_02_locale_key_11_ファイルが存在しない場合</v>
+        <v>test31_複数locale_01_ファイル_localeなしのみ_03_client_locale_言語and国</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
@@ -7077,37 +7168,40 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J71" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_02_locale_key_12_キーが存在しない場合</v>
+        <v>test31_複数locale_02_ファイル_locale_言語_01_client_locale_別言語</v>
+      </c>
+      <c r="K71" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
@@ -7116,37 +7210,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G72" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I72" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="J72" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test22_getProp_02_locale_key_21_キーが存在する場合</v>
+        <v>test31_複数locale_11_ファイル_localeなし_言語_01_client_locale_同一言語and国</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
@@ -7155,37 +7249,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="J73" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_01_ファイル_localeなしのみ_01_client_locale_言語</v>
+        <v>test31_複数locale_11_ファイル_localeなし_言語_02_client_locale_同一言語</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
@@ -7194,37 +7288,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G74" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I74" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="J74" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_01_ファイル_localeなしのみ_02_client_locale_言語and国</v>
+        <v>test31_複数locale_11_ファイル_localeなし_言語_03_client_locale_別言語and国</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
@@ -7233,40 +7327,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G75" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="I75" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="J75" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_02_ファイル_localeなしがない_01_client_locale_別言語</v>
-      </c>
-      <c r="K75" t="s">
-        <v>198</v>
+        <v>test31_複数locale_11_ファイル_localeなし_言語_04_client_locale_別言語</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
@@ -7275,37 +7366,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E76" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
+        <v>198</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" t="s">
         <v>199</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" t="s">
-        <v>202</v>
-      </c>
       <c r="J76" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_11_ファイル_localeなし_言語_01_client_locale_同一言語and国</v>
+        <v>test31_複数locale_12_ファイル_localeなし_言語and国_01_client_locale_同一言語and同一国</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
@@ -7314,37 +7405,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E77" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="J77" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_11_ファイル_localeなし_言語_02_client_locale_同一言語</v>
+        <v>test31_複数locale_12_ファイル_localeなし_言語and国_02_client_locale_同一言語and別国</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
@@ -7353,37 +7444,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E78" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="J78" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_11_ファイル_localeなし_言語_03_client_locale_別言語and国</v>
+        <v>test31_複数locale_12_ファイル_localeなし_言語and国_03_client_locale_同一言語</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
@@ -7392,37 +7483,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E79" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J79" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_11_ファイル_localeなし_言語_04_client_locale_別言語</v>
+        <v>test31_複数locale_12_ファイル_localeなし_言語and国_04_client_locale_別言語and同一国</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
@@ -7431,37 +7522,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="I80" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J80" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_12_ファイル_localeなし_言語and国_01_client_locale_同一言語and同一国</v>
+        <v>test31_複数locale_12_ファイル_localeなし_言語and国_05_client_locale_別言語and別国</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>21</v>
@@ -7470,37 +7561,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G81" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I81" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J81" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_12_ファイル_localeなし_言語and国_02_client_locale_同一言語and別国</v>
+        <v>test31_複数locale_12_ファイル_localeなし_言語and国_06_client_locale_別言語</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>21</v>
@@ -7509,37 +7600,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G82" t="s">
         <v>204</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J82" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_12_ファイル_localeなし_言語and国_03_client_locale_同一言語</v>
+        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_01_client_locale_同一言語and同一国</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>21</v>
@@ -7548,37 +7639,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G83" t="s">
         <v>204</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J83" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_12_ファイル_localeなし_言語and国_04_client_locale_別言語and同一国</v>
+        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_02_client_locale_同一言語and別国</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>21</v>
@@ -7587,37 +7678,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
         <v>204</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="I84" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="J84" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_12_ファイル_localeなし_言語and国_05_client_locale_別言語and別国</v>
+        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_03_client_locale_同一言語</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>21</v>
@@ -7626,37 +7717,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
         <v>204</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="I85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J85" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_12_ファイル_localeなし_言語and国_06_client_locale_別言語</v>
+        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_04_client_locale_別言語and同一国</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>21</v>
@@ -7665,37 +7756,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="I86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="J86" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_01_client_locale_同一言語and同一国</v>
+        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_05_client_locale_別言語and別国</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>21</v>
@@ -7704,37 +7795,37 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G87" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="I87" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J87" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_02_client_locale_同一言語and別国</v>
+        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_06_client_locale_別言語</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>21</v>
@@ -7743,37 +7834,34 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E88" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G88" t="s">
-        <v>210</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="J88" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_03_client_locale_同一言語</v>
+        <v>test41_キー重複_01_同一ファイル内</v>
+      </c>
+      <c r="K88" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>21</v>
@@ -7782,37 +7870,31 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E89" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G89" t="s">
-        <v>210</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I89" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="J89" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_04_client_locale_別言語and同一国</v>
+        <v>test41_キー重複_02_複数ファイル間</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>21</v>
@@ -7821,176 +7903,29 @@
         <f>VLOOKUP(テーブル4[[#This Row],[クラス
 分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
 分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
+        <v>Test91_12_util_PropertyFileUtilValueGetter</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E90" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>210</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="I90" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="J90" t="str">
         <f>"test"&amp;テーブル4[[#This Row],[テスト
 分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
 項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
 項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_05_client_locale_別言語and別国</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E91" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>210</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I91" t="s">
-        <v>201</v>
-      </c>
-      <c r="J91" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test31_複数locale_13_ファイル_localeなし_言語_言語and国_06_client_locale_別言語</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C92" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" t="s">
-        <v>174</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>175</v>
-      </c>
-      <c r="J92" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test41_キー重複_01_同一ファイル内</v>
-      </c>
-      <c r="K92" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C93" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E93" t="s">
-        <v>174</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>193</v>
-      </c>
-      <c r="J93" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
-        <v>test41_キー重複_02_複数ファイル間</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" t="str">
-        <f>VLOOKUP(テーブル4[[#This Row],[クラス
-分類1]]&amp;"-"&amp;テーブル4[[#This Row],[クラス
-分類2]],テスト概要!F:G,2,FALSE)</f>
-        <v>Test91_12_util_PropertyFileUtilMultiLangPropStore</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E94" t="s">
-        <v>174</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" t="s">
-        <v>194</v>
-      </c>
-      <c r="J94" t="str">
-        <f>"test"&amp;テーブル4[[#This Row],[テスト
-分類ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト分類名称]]&amp;IF(テーブル4[[#This Row],[テスト
-項目ID]]="","","_"&amp;テーブル4[[#This Row],[テスト
-項目ID]]&amp;"_"&amp;テーブル4[[#This Row],[テスト項目]]&amp;IF(テーブル4[[#This Row],[サブID]]="","","_"&amp;テーブル4[[#This Row],[サブID]]&amp;"_"&amp;テーブル4[[#This Row],[サブ内容]]))</f>
         <v>test41_キー重複_11_別locale</v>
       </c>
-      <c r="K94" t="s">
-        <v>195</v>
+      <c r="K90" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
